--- a/downloaded_files/AERS312_Lecture-35777.xlsx
+++ b/downloaded_files/AERS312_Lecture-35777.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="71">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -58,6 +58,15 @@
   </x:si>
   <x:si>
     <x:t>ahmed samer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4240004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>احمد عبدالمحسن عبدالمقصود عبدالجواد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ahmed abdelmohsen</x:t>
   </x:si>
   <x:si>
     <x:t>4240059</x:t>
@@ -335,7 +344,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E22" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -635,7 +644,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T22"/>
+  <x:dimension ref="A1:T23"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -645,7 +654,7 @@
     <x:col min="2" max="2" width="9.270624999999999" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="35.040625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="41.620625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="15.110625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="16.170625" style="0" customWidth="1"/>
     <x:col min="6" max="14" width="2.900625" style="0" customWidth="1"/>
     <x:col min="15" max="20" width="3.960625" style="0" customWidth="1"/>
   </x:cols>
@@ -822,7 +831,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.455040162</x:v>
+        <x:v>45927.5751118056</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -854,7 +863,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.8015656597</x:v>
+        <x:v>45907.455040162</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -886,7 +895,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.6668329861</x:v>
+        <x:v>45906.8015656597</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -918,7 +927,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.4199512732</x:v>
+        <x:v>45906.6668329861</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -950,7 +959,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45907.4199512732</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -982,7 +991,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.4242873032</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1014,7 +1023,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.4167003819</x:v>
+        <x:v>45907.4242873032</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1046,7 +1055,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.7783396991</x:v>
+        <x:v>45907.4167003819</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1078,7 +1087,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.5712022801</x:v>
+        <x:v>45907.7783396991</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1110,7 +1119,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.5226064815</x:v>
+        <x:v>45909.5712022801</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1142,7 +1151,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6924225694</x:v>
+        <x:v>45907.5226064815</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1174,7 +1183,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.5045016204</x:v>
+        <x:v>45907.6924225694</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1206,7 +1215,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.417221956</x:v>
+        <x:v>45907.5045016204</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1238,7 +1247,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.540027581</x:v>
+        <x:v>45907.417221956</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1270,7 +1279,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.4159801273</x:v>
+        <x:v>45906.540027581</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1302,7 +1311,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4155421296</x:v>
+        <x:v>45907.4159801273</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1334,7 +1343,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4163510417</x:v>
+        <x:v>45907.4155421296</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1366,7 +1375,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4157517361</x:v>
+        <x:v>45907.4163510417</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1383,6 +1392,38 @@
       <x:c r="R22" s="2" t="s"/>
       <x:c r="S22" s="2" t="s"/>
       <x:c r="T22" s="2" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:20">
+      <x:c r="A23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="E23" s="3">
+        <x:v>45907.4157517361</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="s"/>
+      <x:c r="G23" s="2" t="s"/>
+      <x:c r="H23" s="2" t="s"/>
+      <x:c r="I23" s="2" t="s"/>
+      <x:c r="J23" s="2" t="s"/>
+      <x:c r="K23" s="2" t="s"/>
+      <x:c r="L23" s="2" t="s"/>
+      <x:c r="M23" s="2" t="s"/>
+      <x:c r="N23" s="2" t="s"/>
+      <x:c r="O23" s="2" t="s"/>
+      <x:c r="P23" s="2" t="s"/>
+      <x:c r="Q23" s="2" t="s"/>
+      <x:c r="R23" s="2" t="s"/>
+      <x:c r="S23" s="2" t="s"/>
+      <x:c r="T23" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
